--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="login_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
